--- a/RelatoriosTemplates/TemplatePadrao.xlsx
+++ b/RelatoriosTemplates/TemplatePadrao.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73829B8-9A32-44B0-A527-33F18AFE28E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02437347-07EF-4CD7-94C4-2FBFA7BA3036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,26 +97,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -137,18 +124,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -184,21 +165,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -248,35 +214,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{5DCBDE19-C555-4F90-8233-242700F7C6FA}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5DCBDE19-C555-4F90-8233-242700F7C6FA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,17 +556,53 @@
       <c r="D1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -609,89 +619,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.7265625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="61.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.1796875" style="9"/>
-    <col min="8" max="8" width="14.81640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="9"/>
-    <col min="11" max="11" width="14.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="9"/>
-    <col min="13" max="13" width="11.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="35.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.7265625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="61.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.1796875" style="8"/>
+    <col min="8" max="8" width="14.81640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="11" max="11" width="14.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="8"/>
+    <col min="13" max="13" width="11.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M10"/>
@@ -700,55 +710,55 @@
       <c r="P10"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RelatoriosTemplates/TemplatePadrao.xlsx
+++ b/RelatoriosTemplates/TemplatePadrao.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02437347-07EF-4CD7-94C4-2FBFA7BA3036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73829B8-9A32-44B0-A527-33F18AFE28E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,13 +97,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -124,12 +137,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -165,6 +184,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -214,43 +248,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5DCBDE19-C555-4F90-8233-242700F7C6FA}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5DCBDE19-C555-4F90-8233-242700F7C6FA}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,53 +582,17 @@
       <c r="D1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -619,89 +609,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.7265625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="61.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.1796875" style="8"/>
-    <col min="8" max="8" width="14.81640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="11" width="14.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="8"/>
-    <col min="13" max="13" width="11.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="35.54296875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.7265625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="61.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.1796875" style="9"/>
+    <col min="8" max="8" width="14.81640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="9"/>
+    <col min="11" max="11" width="14.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="9"/>
+    <col min="13" max="13" width="11.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:17" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M10"/>
@@ -710,55 +700,55 @@
       <c r="P10"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
